--- a/nudges/nudge_data.xlsx
+++ b/nudges/nudge_data.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -76,8 +76,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -87,15 +95,23 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -170,55 +186,55 @@
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>42073.0</c:v>
+                  <c:v>42106.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42072.0</c:v>
+                  <c:v>42105.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42071.0</c:v>
+                  <c:v>42104.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42070.0</c:v>
+                  <c:v>42102.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42069.0</c:v>
+                  <c:v>42101.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42068.0</c:v>
+                  <c:v>42100.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42067.0</c:v>
+                  <c:v>42098.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42066.0</c:v>
+                  <c:v>42097.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42065.0</c:v>
+                  <c:v>42096.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42064.0</c:v>
+                  <c:v>42093.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42063.0</c:v>
+                  <c:v>42091.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42062.0</c:v>
+                  <c:v>42087.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42061.0</c:v>
+                  <c:v>42085.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42060.0</c:v>
+                  <c:v>42084.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42059.0</c:v>
+                  <c:v>42083.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42058.0</c:v>
+                  <c:v>42082.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42045.0</c:v>
+                  <c:v>42080.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -230,55 +246,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.0</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>269.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>134.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106.0</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>248.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,11 +309,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2120750584"/>
-        <c:axId val="-2121106792"/>
+        <c:axId val="2102543320"/>
+        <c:axId val="2102546440"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="-2120750584"/>
+        <c:axId val="2102543320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -307,14 +323,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121106792"/>
+        <c:crossAx val="2102546440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2121106792"/>
+        <c:axId val="2102546440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -325,7 +341,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120750584"/>
+        <c:crossAx val="2102543320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -351,16 +367,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -707,7 +723,7 @@
   <dimension ref="B1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C18"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -726,138 +742,138 @@
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="1">
-        <v>42073</v>
+        <v>42106</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="1">
-        <v>42072</v>
+        <v>42105</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1">
-        <v>42071</v>
+        <v>42104</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1">
-        <v>42070</v>
+        <v>42102</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="1">
-        <v>42069</v>
+        <v>42101</v>
       </c>
       <c r="C6">
-        <v>269</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1">
-        <v>42068</v>
+        <v>42100</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="1">
-        <v>42067</v>
+        <v>42098</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="1">
-        <v>42066</v>
+        <v>42097</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="1">
-        <v>42065</v>
+        <v>42096</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="1">
-        <v>42064</v>
+        <v>42093</v>
       </c>
       <c r="C11">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="1">
-        <v>42063</v>
+        <v>42091</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="1">
-        <v>42062</v>
+        <v>42087</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="1">
-        <v>42061</v>
+        <v>42085</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1">
-        <v>42060</v>
+        <v>42084</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="1">
-        <v>42059</v>
+        <v>42083</v>
       </c>
       <c r="C16">
-        <v>248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1">
-        <v>42058</v>
+        <v>42082</v>
       </c>
       <c r="C17">
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="1">
-        <v>42045</v>
+        <v>42080</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
